--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -14,6 +14,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Database" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,361 +26,367 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
-  <si>
-    <t>الاسم</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>الفاتحة</t>
-  </si>
-  <si>
-    <t>البقرة</t>
-  </si>
-  <si>
-    <t>آل عمران</t>
-  </si>
-  <si>
-    <t>النساء</t>
-  </si>
-  <si>
-    <t>المائدة</t>
-  </si>
-  <si>
-    <t>الأنعام</t>
-  </si>
-  <si>
-    <t>الأعراف</t>
-  </si>
-  <si>
-    <t>الأنفال</t>
-  </si>
-  <si>
-    <t>التوبة</t>
-  </si>
-  <si>
-    <t>يونس</t>
-  </si>
-  <si>
-    <t>هود</t>
-  </si>
-  <si>
-    <t>يوسف</t>
-  </si>
-  <si>
-    <t>الرعد</t>
-  </si>
-  <si>
-    <t>إبراهيم</t>
-  </si>
-  <si>
-    <t>الحجر</t>
-  </si>
-  <si>
-    <t>النحل</t>
-  </si>
-  <si>
-    <t>الإسراء</t>
-  </si>
-  <si>
-    <t>الكهف</t>
-  </si>
-  <si>
-    <t>مريم</t>
-  </si>
-  <si>
-    <t>طه</t>
-  </si>
-  <si>
-    <t>الأنبياء</t>
-  </si>
-  <si>
-    <t>الحج</t>
-  </si>
-  <si>
-    <t>المؤمنون</t>
-  </si>
-  <si>
-    <t>النور</t>
-  </si>
-  <si>
-    <t>الفرقان</t>
-  </si>
-  <si>
-    <t>الشعراء</t>
-  </si>
-  <si>
-    <t>النمل</t>
-  </si>
-  <si>
-    <t>القصص</t>
-  </si>
-  <si>
-    <t>العنكبوت</t>
-  </si>
-  <si>
-    <t>الروم</t>
-  </si>
-  <si>
-    <t>لقمان</t>
-  </si>
-  <si>
-    <t>السجدة</t>
-  </si>
-  <si>
-    <t>الأحزاب</t>
-  </si>
-  <si>
-    <t>سبأ</t>
-  </si>
-  <si>
-    <t>فاطر</t>
-  </si>
-  <si>
-    <t>يس</t>
-  </si>
-  <si>
-    <t>الصافات</t>
-  </si>
-  <si>
-    <t>ص</t>
-  </si>
-  <si>
-    <t>الزمر</t>
-  </si>
-  <si>
-    <t>غافر</t>
-  </si>
-  <si>
-    <t>فصلت</t>
-  </si>
-  <si>
-    <t>الشورى</t>
-  </si>
-  <si>
-    <t>الزخرف</t>
-  </si>
-  <si>
-    <t>الدخان</t>
-  </si>
-  <si>
-    <t>الجاثية</t>
-  </si>
-  <si>
-    <t>الأحقاف</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>الفتح</t>
-  </si>
-  <si>
-    <t>الحجرات</t>
-  </si>
-  <si>
-    <t>ق</t>
-  </si>
-  <si>
-    <t>الذاريات</t>
-  </si>
-  <si>
-    <t>الطور</t>
-  </si>
-  <si>
-    <t>النجم</t>
-  </si>
-  <si>
-    <t>القمر</t>
-  </si>
-  <si>
-    <t>الرحمن</t>
-  </si>
-  <si>
-    <t>الواقعة</t>
-  </si>
-  <si>
-    <t>الحديد</t>
-  </si>
-  <si>
-    <t>المجادلة</t>
-  </si>
-  <si>
-    <t>الحشر</t>
-  </si>
-  <si>
-    <t>الممتحنة</t>
-  </si>
-  <si>
-    <t>الصف</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>المنافقون</t>
-  </si>
-  <si>
-    <t>التغابن</t>
-  </si>
-  <si>
-    <t>الطلاق</t>
-  </si>
-  <si>
-    <t>التحريم</t>
-  </si>
-  <si>
-    <t>الملك</t>
-  </si>
-  <si>
-    <t>القلم</t>
-  </si>
-  <si>
-    <t>الحاقة</t>
-  </si>
-  <si>
-    <t>المعارج</t>
-  </si>
-  <si>
-    <t>نوح</t>
-  </si>
-  <si>
-    <t>الجن</t>
-  </si>
-  <si>
-    <t>المزمل</t>
-  </si>
-  <si>
-    <t>المدثر</t>
-  </si>
-  <si>
-    <t>القيامة</t>
-  </si>
-  <si>
-    <t>الإنسان</t>
-  </si>
-  <si>
-    <t>المرسلات</t>
-  </si>
-  <si>
-    <t>النبأ</t>
-  </si>
-  <si>
-    <t>النازعات</t>
-  </si>
-  <si>
-    <t>عبس</t>
-  </si>
-  <si>
-    <t>التكوير</t>
-  </si>
-  <si>
-    <t>الإنفطار</t>
-  </si>
-  <si>
-    <t>المطففين</t>
-  </si>
-  <si>
-    <t>الإنشقاق</t>
-  </si>
-  <si>
-    <t>البروج</t>
-  </si>
-  <si>
-    <t>الطارق</t>
-  </si>
-  <si>
-    <t>الأعلى</t>
-  </si>
-  <si>
-    <t>الغاشية</t>
-  </si>
-  <si>
-    <t>الفجر</t>
-  </si>
-  <si>
-    <t>البلد</t>
-  </si>
-  <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الليل</t>
-  </si>
-  <si>
-    <t>الضحى</t>
-  </si>
-  <si>
-    <t>الشرح</t>
-  </si>
-  <si>
-    <t>التين</t>
-  </si>
-  <si>
-    <t>العلق</t>
-  </si>
-  <si>
-    <t>القدر</t>
-  </si>
-  <si>
-    <t>البينة</t>
-  </si>
-  <si>
-    <t>الزلزلة</t>
-  </si>
-  <si>
-    <t>العاديات</t>
-  </si>
-  <si>
-    <t>القارعة</t>
-  </si>
-  <si>
-    <t>التكاثر</t>
-  </si>
-  <si>
-    <t>العصر</t>
-  </si>
-  <si>
-    <t>الهمزة</t>
-  </si>
-  <si>
-    <t>الفيل</t>
-  </si>
-  <si>
-    <t>قريش</t>
-  </si>
-  <si>
-    <t>الماعون</t>
-  </si>
-  <si>
-    <t>الكوثر</t>
-  </si>
-  <si>
-    <t>الكافرون</t>
-  </si>
-  <si>
-    <t>النصر</t>
-  </si>
-  <si>
-    <t>المسد</t>
-  </si>
-  <si>
-    <t>الإخلاص</t>
-  </si>
-  <si>
-    <t>الفلق</t>
-  </si>
-  <si>
-    <t>الناس</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+  <si>
+    <t xml:space="preserve">الاسم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفاتحة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البقرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آل عمران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النساء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المائدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأعراف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التوبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يونس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إبراهيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحجر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النحل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإسراء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكهف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنبياء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المؤمنون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفرقان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشعراء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القصص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنكبوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الروم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السجدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأحزاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سبأ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصافات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غافر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فصلت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشورى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزخرف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدخان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجاثية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأحقاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفتح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحجرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الذاريات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النجم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرحمن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الواقعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحديد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المجادلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحشر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الممتحنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجمعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المنافقون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التغابن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطلاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الملك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القلم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحاقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المزمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المدثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القيامة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنسان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المرسلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النبأ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النازعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التكوير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنفطار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المطففين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنشقاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البروج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطارق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأعلى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغاشية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفجر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البلد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشمس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الليل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الضحى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشرح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العلق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البينة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزلزلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العاديات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القارعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التكاثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهمزة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قريش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الماعون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكوثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكافرون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المسد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإخلاص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفلق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الناس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادم معاذ عزايزة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1533</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +409,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -457,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +476,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,373 +766,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DF1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DH1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DK1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DL1" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -376,17 +376,17 @@
     <t xml:space="preserve">الناس</t>
   </si>
   <si>
-    <t xml:space="preserve">ادم معاذ عزايزة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1533</t>
+    <t xml:space="preserve">اسيد ايمن عبابنه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +409,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="3">
@@ -465,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,6 +479,8 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,352 +781,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CW1" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CX1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CZ1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DA1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DE1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DG1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DH1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DI1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DJ1" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DK1" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DL1" s="0" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1141,10 +1144,10 @@
   </sheetViews>
   <sheetData>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -409,6 +409,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -466,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,6 +480,8 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -1144,10 +1147,10 @@
   </sheetViews>
   <sheetData>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t xml:space="preserve">الاسم</t>
   </si>
@@ -409,6 +409,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -467,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +483,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -1147,10 +1151,18 @@
   </sheetViews>
   <sheetData>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +488,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,10 +1161,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>117</v>
       </c>
     </row>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t xml:space="preserve">الاسم</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيد ايمن عبابنة</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +491,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -1162,7 +1167,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>117</v>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +491,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -14,7 +14,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet state="visible" name="Database" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,370 +25,361 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
-  <si>
-    <t xml:space="preserve">الاسم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفاتحة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البقرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آل عمران</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النساء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المائدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأنعام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأعراف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأنفال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التوبة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يونس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هود</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يوسف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرعد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إبراهيم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحجر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النحل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإسراء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكهف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مريم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأنبياء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المؤمنون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفرقان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشعراء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القصص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العنكبوت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الروم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لقمان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السجدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأحزاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سبأ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاطر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصافات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزمر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غافر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فصلت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشورى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزخرف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الدخان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجاثية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأحقاف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفتح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحجرات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الذاريات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الطور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النجم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القمر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرحمن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الواقعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحديد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المجادلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحشر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الممتحنة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجمعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المنافقون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التغابن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الطلاق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التحريم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الملك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القلم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحاقة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المعارج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نوح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المزمل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المدثر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القيامة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإنسان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المرسلات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النبأ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النازعات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عبس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التكوير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإنفطار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المطففين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإنشقاق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البروج</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الطارق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الأعلى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الغاشية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفجر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البلد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشمس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الليل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الضحى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشرح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العلق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القدر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البينة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزلزلة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العاديات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القارعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التكاثر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العصر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الهمزة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قريش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الماعون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكوثر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكافرون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النصر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المسد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الإخلاص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفلق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الناس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيد ايمن عبابنه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيد ايمن عبابنة</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>الفاتحة</t>
+  </si>
+  <si>
+    <t>البقرة</t>
+  </si>
+  <si>
+    <t>آل عمران</t>
+  </si>
+  <si>
+    <t>النساء</t>
+  </si>
+  <si>
+    <t>المائدة</t>
+  </si>
+  <si>
+    <t>الأنعام</t>
+  </si>
+  <si>
+    <t>الأعراف</t>
+  </si>
+  <si>
+    <t>الأنفال</t>
+  </si>
+  <si>
+    <t>التوبة</t>
+  </si>
+  <si>
+    <t>يونس</t>
+  </si>
+  <si>
+    <t>هود</t>
+  </si>
+  <si>
+    <t>يوسف</t>
+  </si>
+  <si>
+    <t>الرعد</t>
+  </si>
+  <si>
+    <t>إبراهيم</t>
+  </si>
+  <si>
+    <t>الحجر</t>
+  </si>
+  <si>
+    <t>النحل</t>
+  </si>
+  <si>
+    <t>الإسراء</t>
+  </si>
+  <si>
+    <t>الكهف</t>
+  </si>
+  <si>
+    <t>مريم</t>
+  </si>
+  <si>
+    <t>طه</t>
+  </si>
+  <si>
+    <t>الأنبياء</t>
+  </si>
+  <si>
+    <t>الحج</t>
+  </si>
+  <si>
+    <t>المؤمنون</t>
+  </si>
+  <si>
+    <t>النور</t>
+  </si>
+  <si>
+    <t>الفرقان</t>
+  </si>
+  <si>
+    <t>الشعراء</t>
+  </si>
+  <si>
+    <t>النمل</t>
+  </si>
+  <si>
+    <t>القصص</t>
+  </si>
+  <si>
+    <t>العنكبوت</t>
+  </si>
+  <si>
+    <t>الروم</t>
+  </si>
+  <si>
+    <t>لقمان</t>
+  </si>
+  <si>
+    <t>السجدة</t>
+  </si>
+  <si>
+    <t>الأحزاب</t>
+  </si>
+  <si>
+    <t>سبأ</t>
+  </si>
+  <si>
+    <t>فاطر</t>
+  </si>
+  <si>
+    <t>يس</t>
+  </si>
+  <si>
+    <t>الصافات</t>
+  </si>
+  <si>
+    <t>ص</t>
+  </si>
+  <si>
+    <t>الزمر</t>
+  </si>
+  <si>
+    <t>غافر</t>
+  </si>
+  <si>
+    <t>فصلت</t>
+  </si>
+  <si>
+    <t>الشورى</t>
+  </si>
+  <si>
+    <t>الزخرف</t>
+  </si>
+  <si>
+    <t>الدخان</t>
+  </si>
+  <si>
+    <t>الجاثية</t>
+  </si>
+  <si>
+    <t>الأحقاف</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>الفتح</t>
+  </si>
+  <si>
+    <t>الحجرات</t>
+  </si>
+  <si>
+    <t>ق</t>
+  </si>
+  <si>
+    <t>الذاريات</t>
+  </si>
+  <si>
+    <t>الطور</t>
+  </si>
+  <si>
+    <t>النجم</t>
+  </si>
+  <si>
+    <t>القمر</t>
+  </si>
+  <si>
+    <t>الرحمن</t>
+  </si>
+  <si>
+    <t>الواقعة</t>
+  </si>
+  <si>
+    <t>الحديد</t>
+  </si>
+  <si>
+    <t>المجادلة</t>
+  </si>
+  <si>
+    <t>الحشر</t>
+  </si>
+  <si>
+    <t>الممتحنة</t>
+  </si>
+  <si>
+    <t>الصف</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>المنافقون</t>
+  </si>
+  <si>
+    <t>التغابن</t>
+  </si>
+  <si>
+    <t>الطلاق</t>
+  </si>
+  <si>
+    <t>التحريم</t>
+  </si>
+  <si>
+    <t>الملك</t>
+  </si>
+  <si>
+    <t>القلم</t>
+  </si>
+  <si>
+    <t>الحاقة</t>
+  </si>
+  <si>
+    <t>المعارج</t>
+  </si>
+  <si>
+    <t>نوح</t>
+  </si>
+  <si>
+    <t>الجن</t>
+  </si>
+  <si>
+    <t>المزمل</t>
+  </si>
+  <si>
+    <t>المدثر</t>
+  </si>
+  <si>
+    <t>القيامة</t>
+  </si>
+  <si>
+    <t>الإنسان</t>
+  </si>
+  <si>
+    <t>المرسلات</t>
+  </si>
+  <si>
+    <t>النبأ</t>
+  </si>
+  <si>
+    <t>النازعات</t>
+  </si>
+  <si>
+    <t>عبس</t>
+  </si>
+  <si>
+    <t>التكوير</t>
+  </si>
+  <si>
+    <t>الإنفطار</t>
+  </si>
+  <si>
+    <t>المطففين</t>
+  </si>
+  <si>
+    <t>الإنشقاق</t>
+  </si>
+  <si>
+    <t>البروج</t>
+  </si>
+  <si>
+    <t>الطارق</t>
+  </si>
+  <si>
+    <t>الأعلى</t>
+  </si>
+  <si>
+    <t>الغاشية</t>
+  </si>
+  <si>
+    <t>الفجر</t>
+  </si>
+  <si>
+    <t>البلد</t>
+  </si>
+  <si>
+    <t>الشمس</t>
+  </si>
+  <si>
+    <t>الليل</t>
+  </si>
+  <si>
+    <t>الضحى</t>
+  </si>
+  <si>
+    <t>الشرح</t>
+  </si>
+  <si>
+    <t>التين</t>
+  </si>
+  <si>
+    <t>العلق</t>
+  </si>
+  <si>
+    <t>القدر</t>
+  </si>
+  <si>
+    <t>البينة</t>
+  </si>
+  <si>
+    <t>الزلزلة</t>
+  </si>
+  <si>
+    <t>العاديات</t>
+  </si>
+  <si>
+    <t>القارعة</t>
+  </si>
+  <si>
+    <t>التكاثر</t>
+  </si>
+  <si>
+    <t>العصر</t>
+  </si>
+  <si>
+    <t>الهمزة</t>
+  </si>
+  <si>
+    <t>الفيل</t>
+  </si>
+  <si>
+    <t>قريش</t>
+  </si>
+  <si>
+    <t>الماعون</t>
+  </si>
+  <si>
+    <t>الكوثر</t>
+  </si>
+  <si>
+    <t>الكافرون</t>
+  </si>
+  <si>
+    <t>النصر</t>
+  </si>
+  <si>
+    <t>المسد</t>
+  </si>
+  <si>
+    <t>الإخلاص</t>
+  </si>
+  <si>
+    <t>الفلق</t>
+  </si>
+  <si>
+    <t>الناس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,10 +402,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -471,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,21 +468,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,397 +756,373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.89" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="0" t="s">
+      <c r="CU1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="0" t="s">
+      <c r="CV1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="0" t="s">
+      <c r="CW1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="0" t="s">
+      <c r="CX1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="0" t="s">
+      <c r="CY1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="0" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="0" t="s">
+      <c r="DA1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="0" t="s">
+      <c r="DB1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="0" t="s">
+      <c r="DC1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="0" t="s">
+      <c r="DD1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="0" t="s">
+      <c r="DE1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="0" t="s">
+      <c r="DF1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="0" t="s">
+      <c r="DG1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="0" t="s">
+      <c r="DH1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="0" t="s">
+      <c r="DI1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="0" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="0" t="s">
+      <c r="DK1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="0" t="s">
+      <c r="DL1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="2" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -14,6 +14,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Database" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,361 +26,364 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
-  <si>
-    <t>الاسم</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>الفاتحة</t>
-  </si>
-  <si>
-    <t>البقرة</t>
-  </si>
-  <si>
-    <t>آل عمران</t>
-  </si>
-  <si>
-    <t>النساء</t>
-  </si>
-  <si>
-    <t>المائدة</t>
-  </si>
-  <si>
-    <t>الأنعام</t>
-  </si>
-  <si>
-    <t>الأعراف</t>
-  </si>
-  <si>
-    <t>الأنفال</t>
-  </si>
-  <si>
-    <t>التوبة</t>
-  </si>
-  <si>
-    <t>يونس</t>
-  </si>
-  <si>
-    <t>هود</t>
-  </si>
-  <si>
-    <t>يوسف</t>
-  </si>
-  <si>
-    <t>الرعد</t>
-  </si>
-  <si>
-    <t>إبراهيم</t>
-  </si>
-  <si>
-    <t>الحجر</t>
-  </si>
-  <si>
-    <t>النحل</t>
-  </si>
-  <si>
-    <t>الإسراء</t>
-  </si>
-  <si>
-    <t>الكهف</t>
-  </si>
-  <si>
-    <t>مريم</t>
-  </si>
-  <si>
-    <t>طه</t>
-  </si>
-  <si>
-    <t>الأنبياء</t>
-  </si>
-  <si>
-    <t>الحج</t>
-  </si>
-  <si>
-    <t>المؤمنون</t>
-  </si>
-  <si>
-    <t>النور</t>
-  </si>
-  <si>
-    <t>الفرقان</t>
-  </si>
-  <si>
-    <t>الشعراء</t>
-  </si>
-  <si>
-    <t>النمل</t>
-  </si>
-  <si>
-    <t>القصص</t>
-  </si>
-  <si>
-    <t>العنكبوت</t>
-  </si>
-  <si>
-    <t>الروم</t>
-  </si>
-  <si>
-    <t>لقمان</t>
-  </si>
-  <si>
-    <t>السجدة</t>
-  </si>
-  <si>
-    <t>الأحزاب</t>
-  </si>
-  <si>
-    <t>سبأ</t>
-  </si>
-  <si>
-    <t>فاطر</t>
-  </si>
-  <si>
-    <t>يس</t>
-  </si>
-  <si>
-    <t>الصافات</t>
-  </si>
-  <si>
-    <t>ص</t>
-  </si>
-  <si>
-    <t>الزمر</t>
-  </si>
-  <si>
-    <t>غافر</t>
-  </si>
-  <si>
-    <t>فصلت</t>
-  </si>
-  <si>
-    <t>الشورى</t>
-  </si>
-  <si>
-    <t>الزخرف</t>
-  </si>
-  <si>
-    <t>الدخان</t>
-  </si>
-  <si>
-    <t>الجاثية</t>
-  </si>
-  <si>
-    <t>الأحقاف</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>الفتح</t>
-  </si>
-  <si>
-    <t>الحجرات</t>
-  </si>
-  <si>
-    <t>ق</t>
-  </si>
-  <si>
-    <t>الذاريات</t>
-  </si>
-  <si>
-    <t>الطور</t>
-  </si>
-  <si>
-    <t>النجم</t>
-  </si>
-  <si>
-    <t>القمر</t>
-  </si>
-  <si>
-    <t>الرحمن</t>
-  </si>
-  <si>
-    <t>الواقعة</t>
-  </si>
-  <si>
-    <t>الحديد</t>
-  </si>
-  <si>
-    <t>المجادلة</t>
-  </si>
-  <si>
-    <t>الحشر</t>
-  </si>
-  <si>
-    <t>الممتحنة</t>
-  </si>
-  <si>
-    <t>الصف</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>المنافقون</t>
-  </si>
-  <si>
-    <t>التغابن</t>
-  </si>
-  <si>
-    <t>الطلاق</t>
-  </si>
-  <si>
-    <t>التحريم</t>
-  </si>
-  <si>
-    <t>الملك</t>
-  </si>
-  <si>
-    <t>القلم</t>
-  </si>
-  <si>
-    <t>الحاقة</t>
-  </si>
-  <si>
-    <t>المعارج</t>
-  </si>
-  <si>
-    <t>نوح</t>
-  </si>
-  <si>
-    <t>الجن</t>
-  </si>
-  <si>
-    <t>المزمل</t>
-  </si>
-  <si>
-    <t>المدثر</t>
-  </si>
-  <si>
-    <t>القيامة</t>
-  </si>
-  <si>
-    <t>الإنسان</t>
-  </si>
-  <si>
-    <t>المرسلات</t>
-  </si>
-  <si>
-    <t>النبأ</t>
-  </si>
-  <si>
-    <t>النازعات</t>
-  </si>
-  <si>
-    <t>عبس</t>
-  </si>
-  <si>
-    <t>التكوير</t>
-  </si>
-  <si>
-    <t>الإنفطار</t>
-  </si>
-  <si>
-    <t>المطففين</t>
-  </si>
-  <si>
-    <t>الإنشقاق</t>
-  </si>
-  <si>
-    <t>البروج</t>
-  </si>
-  <si>
-    <t>الطارق</t>
-  </si>
-  <si>
-    <t>الأعلى</t>
-  </si>
-  <si>
-    <t>الغاشية</t>
-  </si>
-  <si>
-    <t>الفجر</t>
-  </si>
-  <si>
-    <t>البلد</t>
-  </si>
-  <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الليل</t>
-  </si>
-  <si>
-    <t>الضحى</t>
-  </si>
-  <si>
-    <t>الشرح</t>
-  </si>
-  <si>
-    <t>التين</t>
-  </si>
-  <si>
-    <t>العلق</t>
-  </si>
-  <si>
-    <t>القدر</t>
-  </si>
-  <si>
-    <t>البينة</t>
-  </si>
-  <si>
-    <t>الزلزلة</t>
-  </si>
-  <si>
-    <t>العاديات</t>
-  </si>
-  <si>
-    <t>القارعة</t>
-  </si>
-  <si>
-    <t>التكاثر</t>
-  </si>
-  <si>
-    <t>العصر</t>
-  </si>
-  <si>
-    <t>الهمزة</t>
-  </si>
-  <si>
-    <t>الفيل</t>
-  </si>
-  <si>
-    <t>قريش</t>
-  </si>
-  <si>
-    <t>الماعون</t>
-  </si>
-  <si>
-    <t>الكوثر</t>
-  </si>
-  <si>
-    <t>الكافرون</t>
-  </si>
-  <si>
-    <t>النصر</t>
-  </si>
-  <si>
-    <t>المسد</t>
-  </si>
-  <si>
-    <t>الإخلاص</t>
-  </si>
-  <si>
-    <t>الفلق</t>
-  </si>
-  <si>
-    <t>الناس</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t xml:space="preserve">الاسم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفاتحة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البقرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آل عمران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النساء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المائدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأعراف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التوبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يونس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إبراهيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحجر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النحل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإسراء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكهف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأنبياء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المؤمنون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفرقان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشعراء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القصص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العنكبوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الروم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لقمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السجدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأحزاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سبأ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاطر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصافات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غافر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فصلت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشورى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزخرف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدخان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجاثية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأحقاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفتح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحجرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الذاريات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النجم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرحمن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الواقعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحديد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المجادلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحشر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الممتحنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجمعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المنافقون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التغابن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطلاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الملك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القلم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحاقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المزمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المدثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القيامة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنسان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المرسلات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النبأ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النازعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التكوير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنفطار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المطففين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإنشقاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البروج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطارق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأعلى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الغاشية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفجر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البلد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشمس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الليل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الضحى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشرح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العلق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البينة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزلزلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العاديات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القارعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التكاثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهمزة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قريش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الماعون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكوثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكافرون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المسد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الإخلاص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفلق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الناس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيد ايمن عبابنة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +406,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -457,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +473,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,373 +763,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DF1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DH1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DK1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DL1" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Arshef.xlsx
+++ b/Arshef.xlsx
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +475,8 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,352 +777,352 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CW1" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CX1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CZ1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DA1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DE1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DG1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DH1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DI1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DJ1" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DK1" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DL1" s="0" t="s">
         <v>115</v>
       </c>
     </row>
